--- a/Code/Results/Cases/Case_4_175/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_175/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.007686801221792</v>
+        <v>1.034359590016015</v>
       </c>
       <c r="D2">
-        <v>1.022445129027361</v>
+        <v>1.036500297272966</v>
       </c>
       <c r="E2">
-        <v>1.022893299424782</v>
+        <v>1.04757400339865</v>
       </c>
       <c r="F2">
-        <v>1.02483044363435</v>
+        <v>1.054394617497509</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04387295903299</v>
+        <v>1.036201307448936</v>
       </c>
       <c r="J2">
-        <v>1.029640007214007</v>
+        <v>1.039479264586259</v>
       </c>
       <c r="K2">
-        <v>1.033600378840722</v>
+        <v>1.039293861062305</v>
       </c>
       <c r="L2">
-        <v>1.034042647874729</v>
+        <v>1.050336261232564</v>
       </c>
       <c r="M2">
-        <v>1.035954358792261</v>
+        <v>1.057137947792307</v>
       </c>
       <c r="N2">
-        <v>1.013703584925247</v>
+        <v>1.017115050988997</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.01162563512639</v>
+        <v>1.03519842061659</v>
       </c>
       <c r="D3">
-        <v>1.025186848076956</v>
+        <v>1.037104001315391</v>
       </c>
       <c r="E3">
-        <v>1.026634212963741</v>
+        <v>1.048432563529527</v>
       </c>
       <c r="F3">
-        <v>1.0291270643897</v>
+        <v>1.05539456535037</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044877062473843</v>
+        <v>1.036368744643871</v>
       </c>
       <c r="J3">
-        <v>1.031804313863169</v>
+        <v>1.039961753859895</v>
       </c>
       <c r="K3">
-        <v>1.035507290310924</v>
+        <v>1.039707725807436</v>
       </c>
       <c r="L3">
-        <v>1.03693727890956</v>
+        <v>1.051006571847872</v>
       </c>
       <c r="M3">
-        <v>1.039400344554833</v>
+        <v>1.057950652928007</v>
       </c>
       <c r="N3">
-        <v>1.014433685470187</v>
+        <v>1.017276621537165</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.014127086849538</v>
+        <v>1.035741779016724</v>
       </c>
       <c r="D4">
-        <v>1.026930868864302</v>
+        <v>1.037495070792547</v>
       </c>
       <c r="E4">
-        <v>1.02901520773191</v>
+        <v>1.048989106564996</v>
       </c>
       <c r="F4">
-        <v>1.031862317928047</v>
+        <v>1.056042925020959</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04550636925439</v>
+        <v>1.036476153298078</v>
       </c>
       <c r="J4">
-        <v>1.03317619597228</v>
+        <v>1.040273873584554</v>
       </c>
       <c r="K4">
-        <v>1.036714774150258</v>
+        <v>1.039975260480038</v>
       </c>
       <c r="L4">
-        <v>1.038775616245291</v>
+        <v>1.051440660930273</v>
       </c>
       <c r="M4">
-        <v>1.041590819740968</v>
+        <v>1.058477237984291</v>
       </c>
       <c r="N4">
-        <v>1.014896320652282</v>
+        <v>1.017381098084007</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.01516774363517</v>
+        <v>1.035970343994206</v>
       </c>
       <c r="D5">
-        <v>1.027657053078339</v>
+        <v>1.037659578333906</v>
       </c>
       <c r="E5">
-        <v>1.030006989124312</v>
+        <v>1.049223314327696</v>
       </c>
       <c r="F5">
-        <v>1.033001816311496</v>
+        <v>1.056315811352124</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045766134640365</v>
+        <v>1.036521083575166</v>
       </c>
       <c r="J5">
-        <v>1.033746275899312</v>
+        <v>1.040405067690186</v>
       </c>
       <c r="K5">
-        <v>1.037216230297362</v>
+        <v>1.040087667858091</v>
       </c>
       <c r="L5">
-        <v>1.03954038847226</v>
+        <v>1.051623235177799</v>
       </c>
       <c r="M5">
-        <v>1.042502572155336</v>
+        <v>1.05869878294345</v>
       </c>
       <c r="N5">
-        <v>1.015088527872312</v>
+        <v>1.017425002742504</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.015341842207315</v>
+        <v>1.036008729056497</v>
       </c>
       <c r="D6">
-        <v>1.027778577458864</v>
+        <v>1.037687205803936</v>
       </c>
       <c r="E6">
-        <v>1.030172983174927</v>
+        <v>1.049262652695158</v>
       </c>
       <c r="F6">
-        <v>1.033192543248326</v>
+        <v>1.056361648645979</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045809471805198</v>
+        <v>1.036528614394044</v>
       </c>
       <c r="J6">
-        <v>1.033841609415286</v>
+        <v>1.040427094491889</v>
       </c>
       <c r="K6">
-        <v>1.037300069524442</v>
+        <v>1.040106537754375</v>
       </c>
       <c r="L6">
-        <v>1.039668330909485</v>
+        <v>1.051653895035933</v>
       </c>
       <c r="M6">
-        <v>1.042655132518569</v>
+        <v>1.058735991160529</v>
       </c>
       <c r="N6">
-        <v>1.015120668001833</v>
+        <v>1.017432373502014</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.014141034736529</v>
+        <v>1.035744832576261</v>
       </c>
       <c r="D7">
-        <v>1.026940599436244</v>
+        <v>1.03749726855189</v>
       </c>
       <c r="E7">
-        <v>1.029028495683084</v>
+        <v>1.048992235131145</v>
       </c>
       <c r="F7">
-        <v>1.031877584370666</v>
+        <v>1.056046570102164</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04550985897426</v>
+        <v>1.036476754540842</v>
       </c>
       <c r="J7">
-        <v>1.033183839341168</v>
+        <v>1.040275626690652</v>
       </c>
       <c r="K7">
-        <v>1.036721498676421</v>
+        <v>1.039976762726582</v>
       </c>
       <c r="L7">
-        <v>1.038785866549497</v>
+        <v>1.051443100171124</v>
       </c>
       <c r="M7">
-        <v>1.041603038097934</v>
+        <v>1.058480197618254</v>
       </c>
       <c r="N7">
-        <v>1.014898897835264</v>
+        <v>1.017381684808644</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.009027948221437</v>
+        <v>1.034642955982916</v>
       </c>
       <c r="D8">
-        <v>1.023378047698324</v>
+        <v>1.036704231329562</v>
       </c>
       <c r="E8">
-        <v>1.024165946982643</v>
+        <v>1.047863950331301</v>
       </c>
       <c r="F8">
-        <v>1.026292034059637</v>
+        <v>1.054732278891768</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044216584524101</v>
+        <v>1.036258086733445</v>
       </c>
       <c r="J8">
-        <v>1.030377471199731</v>
+        <v>1.039642340620063</v>
       </c>
       <c r="K8">
-        <v>1.034250392776354</v>
+        <v>1.039433782476148</v>
       </c>
       <c r="L8">
-        <v>1.035028229998353</v>
+        <v>1.050562721860771</v>
       </c>
       <c r="M8">
-        <v>1.037127261619839</v>
+        <v>1.057412457289018</v>
       </c>
       <c r="N8">
-        <v>1.013952388891064</v>
+        <v>1.017169668832363</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9996394893790415</v>
+        <v>1.032705808217047</v>
       </c>
       <c r="D9">
-        <v>1.016861102771329</v>
+        <v>1.03531018361256</v>
       </c>
       <c r="E9">
-        <v>1.015279990732166</v>
+        <v>1.045883479600214</v>
       </c>
       <c r="F9">
-        <v>1.016088446461354</v>
+        <v>1.052426562768446</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041776948721979</v>
+        <v>1.035865637248284</v>
       </c>
       <c r="J9">
-        <v>1.02520498463158</v>
+        <v>1.038525823323236</v>
       </c>
       <c r="K9">
-        <v>1.029686417845544</v>
+        <v>1.038475013303251</v>
       </c>
       <c r="L9">
-        <v>1.028129931443454</v>
+        <v>1.049014149728761</v>
       </c>
       <c r="M9">
-        <v>1.028925783329642</v>
+        <v>1.055536469928454</v>
       </c>
       <c r="N9">
-        <v>1.012206771658683</v>
+        <v>1.016795549295219</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9931012645466786</v>
+        <v>1.031417490016368</v>
       </c>
       <c r="D10">
-        <v>1.012342227383036</v>
+        <v>1.034383191677419</v>
       </c>
       <c r="E10">
-        <v>1.009121874838133</v>
+        <v>1.044568449616703</v>
       </c>
       <c r="F10">
-        <v>1.009018363208601</v>
+        <v>1.050896397030114</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040036015396805</v>
+        <v>1.035599248355794</v>
       </c>
       <c r="J10">
-        <v>1.021591292469857</v>
+        <v>1.03778115168146</v>
       </c>
       <c r="K10">
-        <v>1.0264921583424</v>
+        <v>1.037834576880744</v>
       </c>
       <c r="L10">
-        <v>1.023328361310323</v>
+        <v>1.047983710897435</v>
       </c>
       <c r="M10">
-        <v>1.023226675306247</v>
+        <v>1.054289603395053</v>
       </c>
       <c r="N10">
-        <v>1.010986654438543</v>
+        <v>1.016545811891743</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9901979861058636</v>
+        <v>1.030860391050112</v>
       </c>
       <c r="D11">
-        <v>1.010340989777149</v>
+        <v>1.033982377355649</v>
       </c>
       <c r="E11">
-        <v>1.006394877176561</v>
+        <v>1.044000301249695</v>
       </c>
       <c r="F11">
-        <v>1.00588750219813</v>
+        <v>1.050235494172823</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039253466476416</v>
+        <v>1.035482778796645</v>
       </c>
       <c r="J11">
-        <v>1.019984303147181</v>
+        <v>1.037458637309812</v>
       </c>
       <c r="K11">
-        <v>1.025070490024424</v>
+        <v>1.037556976725011</v>
       </c>
       <c r="L11">
-        <v>1.021197194789585</v>
+        <v>1.047537997553983</v>
       </c>
       <c r="M11">
-        <v>1.020699236435086</v>
+        <v>1.053750614399124</v>
       </c>
       <c r="N11">
-        <v>1.010443978642001</v>
+        <v>1.016437601253561</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C12">
-        <v>0.9891081948459994</v>
+        <v>1.03065357404293</v>
       </c>
       <c r="D12">
-        <v>1.009590660805899</v>
+        <v>1.033833585764578</v>
       </c>
       <c r="E12">
-        <v>1.005372412241846</v>
+        <v>1.043789457877117</v>
       </c>
       <c r="F12">
-        <v>1.004713583229424</v>
+        <v>1.049990257829599</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038958338088745</v>
+        <v>1.035439348950003</v>
       </c>
       <c r="J12">
-        <v>1.019380777162094</v>
+        <v>1.037338832233158</v>
       </c>
       <c r="K12">
-        <v>1.02453639697127</v>
+        <v>1.037453821676222</v>
       </c>
       <c r="L12">
-        <v>1.02039740406679</v>
+        <v>1.04737251229096</v>
       </c>
       <c r="M12">
-        <v>1.019751032176334</v>
+        <v>1.053550548463677</v>
       </c>
       <c r="N12">
-        <v>1.010240158336214</v>
+        <v>1.016397396511134</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.989342482969518</v>
+        <v>1.030697931794526</v>
       </c>
       <c r="D13">
-        <v>1.009751929620131</v>
+        <v>1.033865498025707</v>
       </c>
       <c r="E13">
-        <v>1.005592173484864</v>
+        <v>1.043834675770542</v>
       </c>
       <c r="F13">
-        <v>1.004965898650238</v>
+        <v>1.050042850409228</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039021848081842</v>
+        <v>1.035448672385991</v>
       </c>
       <c r="J13">
-        <v>1.019510539606485</v>
+        <v>1.037364531212392</v>
       </c>
       <c r="K13">
-        <v>1.024651238155139</v>
+        <v>1.037475950666517</v>
       </c>
       <c r="L13">
-        <v>1.020569338099386</v>
+        <v>1.047408006137782</v>
       </c>
       <c r="M13">
-        <v>1.01995485787165</v>
+        <v>1.053593456991117</v>
       </c>
       <c r="N13">
-        <v>1.010283981631102</v>
+        <v>1.016406021032834</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9901081390956852</v>
+        <v>1.030843293150443</v>
       </c>
       <c r="D14">
-        <v>1.010279111477371</v>
+        <v>1.033970076377384</v>
       </c>
       <c r="E14">
-        <v>1.00631055713568</v>
+        <v>1.043982868939628</v>
       </c>
       <c r="F14">
-        <v>1.005790692877312</v>
+        <v>1.050215217701622</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03922916279572</v>
+        <v>1.035479192292849</v>
       </c>
       <c r="J14">
-        <v>1.01993455215526</v>
+        <v>1.037448734359379</v>
       </c>
       <c r="K14">
-        <v>1.025026465972606</v>
+        <v>1.037548450746611</v>
       </c>
       <c r="L14">
-        <v>1.021131252878008</v>
+        <v>1.047524317003155</v>
       </c>
       <c r="M14">
-        <v>1.020621051950707</v>
+        <v>1.053734074050936</v>
       </c>
       <c r="N14">
-        <v>1.010427177152825</v>
+        <v>1.016434278128595</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9905783598637649</v>
+        <v>1.030932870276582</v>
       </c>
       <c r="D15">
-        <v>1.010602991732322</v>
+        <v>1.034034522353856</v>
       </c>
       <c r="E15">
-        <v>1.006751899464741</v>
+        <v>1.044074201164447</v>
       </c>
       <c r="F15">
-        <v>1.006297404424834</v>
+        <v>1.050321452374965</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039356301555717</v>
+        <v>1.035497974389164</v>
       </c>
       <c r="J15">
-        <v>1.020194914807796</v>
+        <v>1.037500613554621</v>
       </c>
       <c r="K15">
-        <v>1.025256851017315</v>
+        <v>1.037593114908125</v>
       </c>
       <c r="L15">
-        <v>1.021476371980769</v>
+        <v>1.047595989616859</v>
       </c>
       <c r="M15">
-        <v>1.021030256986104</v>
+        <v>1.053820731269811</v>
       </c>
       <c r="N15">
-        <v>1.010515104211333</v>
+        <v>1.016451686880234</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9932923794383643</v>
+        <v>1.031454478795343</v>
       </c>
       <c r="D16">
-        <v>1.012474080316224</v>
+        <v>1.034409804750952</v>
       </c>
       <c r="E16">
-        <v>1.009301544522382</v>
+        <v>1.044606182617601</v>
       </c>
       <c r="F16">
-        <v>1.009224639090433</v>
+        <v>1.050940294281358</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040087333791594</v>
+        <v>1.035606954482269</v>
       </c>
       <c r="J16">
-        <v>1.021697030248508</v>
+        <v>1.037802554590799</v>
       </c>
       <c r="K16">
-        <v>1.02658567837001</v>
+        <v>1.037852994338657</v>
       </c>
       <c r="L16">
-        <v>1.023468672842443</v>
+        <v>1.048013301517732</v>
       </c>
       <c r="M16">
-        <v>1.023393119136922</v>
+        <v>1.054325393670975</v>
       </c>
       <c r="N16">
-        <v>1.011022360052306</v>
+        <v>1.016552991980379</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9949751158952289</v>
+        <v>1.031781872228497</v>
       </c>
       <c r="D17">
-        <v>1.013635642456193</v>
+        <v>1.034645365752701</v>
       </c>
       <c r="E17">
-        <v>1.010884365695846</v>
+        <v>1.044940221272697</v>
       </c>
       <c r="F17">
-        <v>1.011041845652058</v>
+        <v>1.051328925467085</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040538106731733</v>
+        <v>1.03567501501383</v>
       </c>
       <c r="J17">
-        <v>1.022627771969239</v>
+        <v>1.037991937184059</v>
       </c>
       <c r="K17">
-        <v>1.027408740146528</v>
+        <v>1.038015933804104</v>
       </c>
       <c r="L17">
-        <v>1.024704206547207</v>
+        <v>1.048275197986132</v>
       </c>
       <c r="M17">
-        <v>1.024859002113274</v>
+        <v>1.054642200400956</v>
       </c>
       <c r="N17">
-        <v>1.011336643048275</v>
+        <v>1.016616518833177</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9959497010449241</v>
+        <v>1.031972907670856</v>
       </c>
       <c r="D18">
-        <v>1.014308885452632</v>
+        <v>1.034782820282784</v>
       </c>
       <c r="E18">
-        <v>1.011801793468048</v>
+        <v>1.045135182627852</v>
       </c>
       <c r="F18">
-        <v>1.012095127025814</v>
+        <v>1.051555768386125</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040798274512416</v>
+        <v>1.03571460532931</v>
       </c>
       <c r="J18">
-        <v>1.023166601918677</v>
+        <v>1.03810239434113</v>
       </c>
       <c r="K18">
-        <v>1.027885116749277</v>
+        <v>1.038110945875008</v>
       </c>
       <c r="L18">
-        <v>1.025419875323363</v>
+        <v>1.048428003355272</v>
       </c>
       <c r="M18">
-        <v>1.025708298499275</v>
+        <v>1.054827076343694</v>
       </c>
       <c r="N18">
-        <v>1.011518580077188</v>
+        <v>1.016653565928953</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9962808503765862</v>
+        <v>1.032038058053943</v>
       </c>
       <c r="D19">
-        <v>1.014537727053073</v>
+        <v>1.034829698136634</v>
       </c>
       <c r="E19">
-        <v>1.012113641171425</v>
+        <v>1.045201680097863</v>
       </c>
       <c r="F19">
-        <v>1.012453154241107</v>
+        <v>1.051633143204487</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04088652092499</v>
+        <v>1.035728086225606</v>
       </c>
       <c r="J19">
-        <v>1.023349649069612</v>
+        <v>1.038140056239349</v>
       </c>
       <c r="K19">
-        <v>1.02804692788576</v>
+        <v>1.038143337792728</v>
       </c>
       <c r="L19">
-        <v>1.02566306285962</v>
+        <v>1.048480113728077</v>
       </c>
       <c r="M19">
-        <v>1.025996927732207</v>
+        <v>1.054890129132852</v>
       </c>
       <c r="N19">
-        <v>1.011580384638581</v>
+        <v>1.016666196823641</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9947952944390633</v>
+        <v>1.031746738513047</v>
       </c>
       <c r="D20">
-        <v>1.013511462213215</v>
+        <v>1.034620086504645</v>
       </c>
       <c r="E20">
-        <v>1.010715147560877</v>
+        <v>1.044904369428347</v>
       </c>
       <c r="F20">
-        <v>1.010847569729091</v>
+        <v>1.051287212361797</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040490029579713</v>
+        <v>1.035667723954376</v>
       </c>
       <c r="J20">
-        <v>1.02252833363789</v>
+        <v>1.037971618888819</v>
       </c>
       <c r="K20">
-        <v>1.027320817901035</v>
+        <v>1.037998454805024</v>
       </c>
       <c r="L20">
-        <v>1.024572164883116</v>
+        <v>1.048247094248048</v>
       </c>
       <c r="M20">
-        <v>1.024702322304062</v>
+        <v>1.05460820093054</v>
       </c>
       <c r="N20">
-        <v>1.0113030667147</v>
+        <v>1.01660970372845</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9898829912157155</v>
+        <v>1.030800484685559</v>
       </c>
       <c r="D21">
-        <v>1.010124064657373</v>
+        <v>1.033939278197641</v>
       </c>
       <c r="E21">
-        <v>1.006099278046833</v>
+        <v>1.043939224425014</v>
       </c>
       <c r="F21">
-        <v>1.005548119085529</v>
+        <v>1.050164452849232</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039168237932007</v>
+        <v>1.035470209569975</v>
       </c>
       <c r="J21">
-        <v>1.019809876009431</v>
+        <v>1.037423938867306</v>
       </c>
       <c r="K21">
-        <v>1.024916138915186</v>
+        <v>1.037527102430183</v>
       </c>
       <c r="L21">
-        <v>1.020966011805077</v>
+        <v>1.047490064339289</v>
       </c>
       <c r="M21">
-        <v>1.020425137524501</v>
+        <v>1.053692661994227</v>
       </c>
       <c r="N21">
-        <v>1.010385072396254</v>
+        <v>1.016425957404412</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9867282727665539</v>
+        <v>1.030206199696972</v>
       </c>
       <c r="D22">
-        <v>1.007953732165922</v>
+        <v>1.033511740971945</v>
       </c>
       <c r="E22">
-        <v>1.003141680110177</v>
+        <v>1.043333512458791</v>
       </c>
       <c r="F22">
-        <v>1.002152337769899</v>
+        <v>1.049459990539675</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038311324310209</v>
+        <v>1.035345053517825</v>
       </c>
       <c r="J22">
-        <v>1.018062233173637</v>
+        <v>1.037079539890281</v>
       </c>
       <c r="K22">
-        <v>1.023369253769289</v>
+        <v>1.037230502093833</v>
       </c>
       <c r="L22">
-        <v>1.018651155566909</v>
+        <v>1.047014509843629</v>
       </c>
       <c r="M22">
-        <v>1.017681276673219</v>
+        <v>1.053117828827147</v>
       </c>
       <c r="N22">
-        <v>1.009794847937715</v>
+        <v>1.016310368298381</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9884071087748163</v>
+        <v>1.030521178136329</v>
       </c>
       <c r="D23">
-        <v>1.009108210420454</v>
+        <v>1.033738337271501</v>
       </c>
       <c r="E23">
-        <v>1.004714968454589</v>
+        <v>1.043654505770839</v>
       </c>
       <c r="F23">
-        <v>1.003958743151113</v>
+        <v>1.04983330028401</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038768090158527</v>
+        <v>1.035411492935886</v>
       </c>
       <c r="J23">
-        <v>1.018992430978636</v>
+        <v>1.037262116742029</v>
       </c>
       <c r="K23">
-        <v>1.024192682939961</v>
+        <v>1.037387758145207</v>
       </c>
       <c r="L23">
-        <v>1.019882935379244</v>
+        <v>1.047266569981429</v>
       </c>
       <c r="M23">
-        <v>1.019141178771523</v>
+        <v>1.053422482198376</v>
       </c>
       <c r="N23">
-        <v>1.010109004892054</v>
+        <v>1.016371649862169</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9948765693809476</v>
+        <v>1.031762613703235</v>
       </c>
       <c r="D24">
-        <v>1.013567587115007</v>
+        <v>1.03463150893656</v>
       </c>
       <c r="E24">
-        <v>1.010791627859357</v>
+        <v>1.044920568956026</v>
       </c>
       <c r="F24">
-        <v>1.010935375212497</v>
+        <v>1.051306060221519</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040511762095676</v>
+        <v>1.035671018804822</v>
       </c>
       <c r="J24">
-        <v>1.022573278054035</v>
+        <v>1.037980799872082</v>
       </c>
       <c r="K24">
-        <v>1.02736055760095</v>
+        <v>1.038006352898251</v>
       </c>
       <c r="L24">
-        <v>1.024631844244237</v>
+        <v>1.048259792976874</v>
       </c>
       <c r="M24">
-        <v>1.024773136836813</v>
+        <v>1.054623563556191</v>
       </c>
       <c r="N24">
-        <v>1.01131824266945</v>
+        <v>1.016612783202736</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.002113950789223</v>
+        <v>1.0332060650324</v>
       </c>
       <c r="D25">
-        <v>1.018575576382135</v>
+        <v>1.035670167177124</v>
       </c>
       <c r="E25">
-        <v>1.017616908458895</v>
+        <v>1.046394554715993</v>
       </c>
       <c r="F25">
-        <v>1.01877159109814</v>
+        <v>1.053021422886544</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042427340416435</v>
+        <v>1.035967935834997</v>
       </c>
       <c r="J25">
-        <v>1.026570380894108</v>
+        <v>1.038814532345951</v>
       </c>
       <c r="K25">
-        <v>1.030892215128967</v>
+        <v>1.038723104544298</v>
       </c>
       <c r="L25">
-        <v>1.029947764351092</v>
+        <v>1.049414156379645</v>
       </c>
       <c r="M25">
-        <v>1.031085327113157</v>
+        <v>1.056020795824879</v>
       </c>
       <c r="N25">
-        <v>1.012667676725404</v>
+        <v>1.016892327199673</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_175/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_175/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.034359590016015</v>
+        <v>1.007686801221791</v>
       </c>
       <c r="D2">
-        <v>1.036500297272966</v>
+        <v>1.022445129027361</v>
       </c>
       <c r="E2">
-        <v>1.04757400339865</v>
+        <v>1.022893299424782</v>
       </c>
       <c r="F2">
-        <v>1.054394617497509</v>
+        <v>1.02483044363435</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036201307448936</v>
+        <v>1.043872959032989</v>
       </c>
       <c r="J2">
-        <v>1.039479264586259</v>
+        <v>1.029640007214007</v>
       </c>
       <c r="K2">
-        <v>1.039293861062305</v>
+        <v>1.033600378840722</v>
       </c>
       <c r="L2">
-        <v>1.050336261232564</v>
+        <v>1.034042647874729</v>
       </c>
       <c r="M2">
-        <v>1.057137947792307</v>
+        <v>1.035954358792261</v>
       </c>
       <c r="N2">
-        <v>1.017115050988997</v>
+        <v>1.013703584925247</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.03519842061659</v>
+        <v>1.01162563512639</v>
       </c>
       <c r="D3">
-        <v>1.037104001315391</v>
+        <v>1.025186848076956</v>
       </c>
       <c r="E3">
-        <v>1.048432563529527</v>
+        <v>1.026634212963741</v>
       </c>
       <c r="F3">
-        <v>1.05539456535037</v>
+        <v>1.029127064389699</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036368744643871</v>
+        <v>1.044877062473843</v>
       </c>
       <c r="J3">
-        <v>1.039961753859895</v>
+        <v>1.031804313863169</v>
       </c>
       <c r="K3">
-        <v>1.039707725807436</v>
+        <v>1.035507290310924</v>
       </c>
       <c r="L3">
-        <v>1.051006571847872</v>
+        <v>1.03693727890956</v>
       </c>
       <c r="M3">
-        <v>1.057950652928007</v>
+        <v>1.039400344554833</v>
       </c>
       <c r="N3">
-        <v>1.017276621537165</v>
+        <v>1.014433685470187</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.035741779016724</v>
+        <v>1.014127086849537</v>
       </c>
       <c r="D4">
-        <v>1.037495070792547</v>
+        <v>1.026930868864302</v>
       </c>
       <c r="E4">
-        <v>1.048989106564996</v>
+        <v>1.029015207731909</v>
       </c>
       <c r="F4">
-        <v>1.056042925020959</v>
+        <v>1.031862317928046</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036476153298078</v>
+        <v>1.04550636925439</v>
       </c>
       <c r="J4">
-        <v>1.040273873584554</v>
+        <v>1.033176195972279</v>
       </c>
       <c r="K4">
-        <v>1.039975260480038</v>
+        <v>1.036714774150258</v>
       </c>
       <c r="L4">
-        <v>1.051440660930273</v>
+        <v>1.03877561624529</v>
       </c>
       <c r="M4">
-        <v>1.058477237984291</v>
+        <v>1.041590819740966</v>
       </c>
       <c r="N4">
-        <v>1.017381098084007</v>
+        <v>1.014896320652282</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.035970343994206</v>
+        <v>1.015167743635169</v>
       </c>
       <c r="D5">
-        <v>1.037659578333906</v>
+        <v>1.027657053078339</v>
       </c>
       <c r="E5">
-        <v>1.049223314327696</v>
+        <v>1.030006989124311</v>
       </c>
       <c r="F5">
-        <v>1.056315811352124</v>
+        <v>1.033001816311494</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036521083575166</v>
+        <v>1.045766134640365</v>
       </c>
       <c r="J5">
-        <v>1.040405067690186</v>
+        <v>1.033746275899311</v>
       </c>
       <c r="K5">
-        <v>1.040087667858091</v>
+        <v>1.037216230297361</v>
       </c>
       <c r="L5">
-        <v>1.051623235177799</v>
+        <v>1.039540388472259</v>
       </c>
       <c r="M5">
-        <v>1.05869878294345</v>
+        <v>1.042502572155335</v>
       </c>
       <c r="N5">
-        <v>1.017425002742504</v>
+        <v>1.015088527872311</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.036008729056497</v>
+        <v>1.015341842207315</v>
       </c>
       <c r="D6">
-        <v>1.037687205803936</v>
+        <v>1.027778577458863</v>
       </c>
       <c r="E6">
-        <v>1.049262652695158</v>
+        <v>1.030172983174927</v>
       </c>
       <c r="F6">
-        <v>1.056361648645979</v>
+        <v>1.033192543248326</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036528614394044</v>
+        <v>1.045809471805198</v>
       </c>
       <c r="J6">
-        <v>1.040427094491889</v>
+        <v>1.033841609415286</v>
       </c>
       <c r="K6">
-        <v>1.040106537754375</v>
+        <v>1.037300069524442</v>
       </c>
       <c r="L6">
-        <v>1.051653895035933</v>
+        <v>1.039668330909485</v>
       </c>
       <c r="M6">
-        <v>1.058735991160529</v>
+        <v>1.042655132518569</v>
       </c>
       <c r="N6">
-        <v>1.017432373502014</v>
+        <v>1.015120668001833</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.035744832576261</v>
+        <v>1.014141034736529</v>
       </c>
       <c r="D7">
-        <v>1.03749726855189</v>
+        <v>1.026940599436244</v>
       </c>
       <c r="E7">
-        <v>1.048992235131145</v>
+        <v>1.029028495683085</v>
       </c>
       <c r="F7">
-        <v>1.056046570102164</v>
+        <v>1.031877584370666</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036476754540842</v>
+        <v>1.04550985897426</v>
       </c>
       <c r="J7">
-        <v>1.040275626690652</v>
+        <v>1.033183839341168</v>
       </c>
       <c r="K7">
-        <v>1.039976762726582</v>
+        <v>1.036721498676421</v>
       </c>
       <c r="L7">
-        <v>1.051443100171124</v>
+        <v>1.038785866549497</v>
       </c>
       <c r="M7">
-        <v>1.058480197618254</v>
+        <v>1.041603038097934</v>
       </c>
       <c r="N7">
-        <v>1.017381684808644</v>
+        <v>1.014898897835264</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.034642955982916</v>
+        <v>1.009027948221437</v>
       </c>
       <c r="D8">
-        <v>1.036704231329562</v>
+        <v>1.023378047698323</v>
       </c>
       <c r="E8">
-        <v>1.047863950331301</v>
+        <v>1.024165946982643</v>
       </c>
       <c r="F8">
-        <v>1.054732278891768</v>
+        <v>1.026292034059637</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036258086733445</v>
+        <v>1.044216584524101</v>
       </c>
       <c r="J8">
-        <v>1.039642340620063</v>
+        <v>1.030377471199731</v>
       </c>
       <c r="K8">
-        <v>1.039433782476148</v>
+        <v>1.034250392776354</v>
       </c>
       <c r="L8">
-        <v>1.050562721860771</v>
+        <v>1.035028229998352</v>
       </c>
       <c r="M8">
-        <v>1.057412457289018</v>
+        <v>1.037127261619839</v>
       </c>
       <c r="N8">
-        <v>1.017169668832363</v>
+        <v>1.013952388891064</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.032705808217047</v>
+        <v>0.999639489379042</v>
       </c>
       <c r="D9">
-        <v>1.03531018361256</v>
+        <v>1.016861102771329</v>
       </c>
       <c r="E9">
-        <v>1.045883479600214</v>
+        <v>1.015279990732167</v>
       </c>
       <c r="F9">
-        <v>1.052426562768446</v>
+        <v>1.016088446461355</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035865637248284</v>
+        <v>1.04177694872198</v>
       </c>
       <c r="J9">
-        <v>1.038525823323236</v>
+        <v>1.025204984631581</v>
       </c>
       <c r="K9">
-        <v>1.038475013303251</v>
+        <v>1.029686417845544</v>
       </c>
       <c r="L9">
-        <v>1.049014149728761</v>
+        <v>1.028129931443455</v>
       </c>
       <c r="M9">
-        <v>1.055536469928454</v>
+        <v>1.028925783329643</v>
       </c>
       <c r="N9">
-        <v>1.016795549295219</v>
+        <v>1.012206771658684</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.031417490016368</v>
+        <v>0.9931012645466786</v>
       </c>
       <c r="D10">
-        <v>1.034383191677419</v>
+        <v>1.012342227383035</v>
       </c>
       <c r="E10">
-        <v>1.044568449616703</v>
+        <v>1.009121874838133</v>
       </c>
       <c r="F10">
-        <v>1.050896397030114</v>
+        <v>1.009018363208602</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035599248355794</v>
+        <v>1.040036015396805</v>
       </c>
       <c r="J10">
-        <v>1.03778115168146</v>
+        <v>1.021591292469857</v>
       </c>
       <c r="K10">
-        <v>1.037834576880744</v>
+        <v>1.0264921583424</v>
       </c>
       <c r="L10">
-        <v>1.047983710897435</v>
+        <v>1.023328361310323</v>
       </c>
       <c r="M10">
-        <v>1.054289603395053</v>
+        <v>1.023226675306248</v>
       </c>
       <c r="N10">
-        <v>1.016545811891743</v>
+        <v>1.010986654438543</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.030860391050112</v>
+        <v>0.9901979861058636</v>
       </c>
       <c r="D11">
-        <v>1.033982377355649</v>
+        <v>1.010340989777149</v>
       </c>
       <c r="E11">
-        <v>1.044000301249695</v>
+        <v>1.006394877176561</v>
       </c>
       <c r="F11">
-        <v>1.050235494172823</v>
+        <v>1.00588750219813</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035482778796645</v>
+        <v>1.039253466476416</v>
       </c>
       <c r="J11">
-        <v>1.037458637309812</v>
+        <v>1.019984303147181</v>
       </c>
       <c r="K11">
-        <v>1.037556976725011</v>
+        <v>1.025070490024424</v>
       </c>
       <c r="L11">
-        <v>1.047537997553983</v>
+        <v>1.021197194789585</v>
       </c>
       <c r="M11">
-        <v>1.053750614399124</v>
+        <v>1.020699236435086</v>
       </c>
       <c r="N11">
-        <v>1.016437601253561</v>
+        <v>1.010443978642001</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.03065357404293</v>
+        <v>0.9891081948459994</v>
       </c>
       <c r="D12">
-        <v>1.033833585764578</v>
+        <v>1.009590660805899</v>
       </c>
       <c r="E12">
-        <v>1.043789457877117</v>
+        <v>1.005372412241846</v>
       </c>
       <c r="F12">
-        <v>1.049990257829599</v>
+        <v>1.004713583229424</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035439348950003</v>
+        <v>1.038958338088745</v>
       </c>
       <c r="J12">
-        <v>1.037338832233158</v>
+        <v>1.019380777162094</v>
       </c>
       <c r="K12">
-        <v>1.037453821676222</v>
+        <v>1.02453639697127</v>
       </c>
       <c r="L12">
-        <v>1.04737251229096</v>
+        <v>1.02039740406679</v>
       </c>
       <c r="M12">
-        <v>1.053550548463677</v>
+        <v>1.019751032176334</v>
       </c>
       <c r="N12">
-        <v>1.016397396511134</v>
+        <v>1.010240158336214</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.030697931794526</v>
+        <v>0.9893424829695171</v>
       </c>
       <c r="D13">
-        <v>1.033865498025707</v>
+        <v>1.00975192962013</v>
       </c>
       <c r="E13">
-        <v>1.043834675770542</v>
+        <v>1.005592173484864</v>
       </c>
       <c r="F13">
-        <v>1.050042850409228</v>
+        <v>1.004965898650238</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035448672385991</v>
+        <v>1.039021848081842</v>
       </c>
       <c r="J13">
-        <v>1.037364531212392</v>
+        <v>1.019510539606485</v>
       </c>
       <c r="K13">
-        <v>1.037475950666517</v>
+        <v>1.024651238155138</v>
       </c>
       <c r="L13">
-        <v>1.047408006137782</v>
+        <v>1.020569338099386</v>
       </c>
       <c r="M13">
-        <v>1.053593456991117</v>
+        <v>1.019954857871649</v>
       </c>
       <c r="N13">
-        <v>1.016406021032834</v>
+        <v>1.010283981631102</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.030843293150443</v>
+        <v>0.9901081390956841</v>
       </c>
       <c r="D14">
-        <v>1.033970076377384</v>
+        <v>1.010279111477369</v>
       </c>
       <c r="E14">
-        <v>1.043982868939628</v>
+        <v>1.006310557135679</v>
       </c>
       <c r="F14">
-        <v>1.050215217701622</v>
+        <v>1.005790692877311</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035479192292849</v>
+        <v>1.039229162795719</v>
       </c>
       <c r="J14">
-        <v>1.037448734359379</v>
+        <v>1.019934552155258</v>
       </c>
       <c r="K14">
-        <v>1.037548450746611</v>
+        <v>1.025026465972605</v>
       </c>
       <c r="L14">
-        <v>1.047524317003155</v>
+        <v>1.021131252878007</v>
       </c>
       <c r="M14">
-        <v>1.053734074050936</v>
+        <v>1.020621051950706</v>
       </c>
       <c r="N14">
-        <v>1.016434278128595</v>
+        <v>1.010427177152825</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.030932870276582</v>
+        <v>0.9905783598637652</v>
       </c>
       <c r="D15">
-        <v>1.034034522353856</v>
+        <v>1.010602991732322</v>
       </c>
       <c r="E15">
-        <v>1.044074201164447</v>
+        <v>1.006751899464741</v>
       </c>
       <c r="F15">
-        <v>1.050321452374965</v>
+        <v>1.006297404424835</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035497974389164</v>
+        <v>1.039356301555717</v>
       </c>
       <c r="J15">
-        <v>1.037500613554621</v>
+        <v>1.020194914807796</v>
       </c>
       <c r="K15">
-        <v>1.037593114908125</v>
+        <v>1.025256851017315</v>
       </c>
       <c r="L15">
-        <v>1.047595989616859</v>
+        <v>1.021476371980769</v>
       </c>
       <c r="M15">
-        <v>1.053820731269811</v>
+        <v>1.021030256986104</v>
       </c>
       <c r="N15">
-        <v>1.016451686880234</v>
+        <v>1.010515104211333</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.031454478795343</v>
+        <v>0.9932923794383631</v>
       </c>
       <c r="D16">
-        <v>1.034409804750952</v>
+        <v>1.012474080316223</v>
       </c>
       <c r="E16">
-        <v>1.044606182617601</v>
+        <v>1.009301544522381</v>
       </c>
       <c r="F16">
-        <v>1.050940294281358</v>
+        <v>1.009224639090431</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035606954482269</v>
+        <v>1.040087333791593</v>
       </c>
       <c r="J16">
-        <v>1.037802554590799</v>
+        <v>1.021697030248507</v>
       </c>
       <c r="K16">
-        <v>1.037852994338657</v>
+        <v>1.026585678370009</v>
       </c>
       <c r="L16">
-        <v>1.048013301517732</v>
+        <v>1.023468672842441</v>
       </c>
       <c r="M16">
-        <v>1.054325393670975</v>
+        <v>1.02339311913692</v>
       </c>
       <c r="N16">
-        <v>1.016552991980379</v>
+        <v>1.011022360052305</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.031781872228497</v>
+        <v>0.9949751158952289</v>
       </c>
       <c r="D17">
-        <v>1.034645365752701</v>
+        <v>1.013635642456193</v>
       </c>
       <c r="E17">
-        <v>1.044940221272697</v>
+        <v>1.010884365695847</v>
       </c>
       <c r="F17">
-        <v>1.051328925467085</v>
+        <v>1.011041845652059</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03567501501383</v>
+        <v>1.040538106731733</v>
       </c>
       <c r="J17">
-        <v>1.037991937184059</v>
+        <v>1.022627771969239</v>
       </c>
       <c r="K17">
-        <v>1.038015933804104</v>
+        <v>1.027408740146528</v>
       </c>
       <c r="L17">
-        <v>1.048275197986132</v>
+        <v>1.024704206547207</v>
       </c>
       <c r="M17">
-        <v>1.054642200400956</v>
+        <v>1.024859002113274</v>
       </c>
       <c r="N17">
-        <v>1.016616518833177</v>
+        <v>1.011336643048275</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.031972907670856</v>
+        <v>0.9959497010449246</v>
       </c>
       <c r="D18">
-        <v>1.034782820282784</v>
+        <v>1.014308885452633</v>
       </c>
       <c r="E18">
-        <v>1.045135182627852</v>
+        <v>1.011801793468048</v>
       </c>
       <c r="F18">
-        <v>1.051555768386125</v>
+        <v>1.012095127025815</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03571460532931</v>
+        <v>1.040798274512416</v>
       </c>
       <c r="J18">
-        <v>1.03810239434113</v>
+        <v>1.023166601918678</v>
       </c>
       <c r="K18">
-        <v>1.038110945875008</v>
+        <v>1.027885116749278</v>
       </c>
       <c r="L18">
-        <v>1.048428003355272</v>
+        <v>1.025419875323363</v>
       </c>
       <c r="M18">
-        <v>1.054827076343694</v>
+        <v>1.025708298499276</v>
       </c>
       <c r="N18">
-        <v>1.016653565928953</v>
+        <v>1.011518580077188</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.032038058053943</v>
+        <v>0.9962808503765872</v>
       </c>
       <c r="D19">
-        <v>1.034829698136634</v>
+        <v>1.014537727053074</v>
       </c>
       <c r="E19">
-        <v>1.045201680097863</v>
+        <v>1.012113641171426</v>
       </c>
       <c r="F19">
-        <v>1.051633143204487</v>
+        <v>1.012453154241108</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035728086225606</v>
+        <v>1.040886520924991</v>
       </c>
       <c r="J19">
-        <v>1.038140056239349</v>
+        <v>1.023349649069613</v>
       </c>
       <c r="K19">
-        <v>1.038143337792728</v>
+        <v>1.028046927885761</v>
       </c>
       <c r="L19">
-        <v>1.048480113728077</v>
+        <v>1.025663062859621</v>
       </c>
       <c r="M19">
-        <v>1.054890129132852</v>
+        <v>1.025996927732207</v>
       </c>
       <c r="N19">
-        <v>1.016666196823641</v>
+        <v>1.011580384638581</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.031746738513047</v>
+        <v>0.9947952944390631</v>
       </c>
       <c r="D20">
-        <v>1.034620086504645</v>
+        <v>1.013511462213215</v>
       </c>
       <c r="E20">
-        <v>1.044904369428347</v>
+        <v>1.010715147560877</v>
       </c>
       <c r="F20">
-        <v>1.051287212361797</v>
+        <v>1.010847569729091</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035667723954376</v>
+        <v>1.040490029579713</v>
       </c>
       <c r="J20">
-        <v>1.037971618888819</v>
+        <v>1.02252833363789</v>
       </c>
       <c r="K20">
-        <v>1.037998454805024</v>
+        <v>1.027320817901035</v>
       </c>
       <c r="L20">
-        <v>1.048247094248048</v>
+        <v>1.024572164883116</v>
       </c>
       <c r="M20">
-        <v>1.05460820093054</v>
+        <v>1.024702322304062</v>
       </c>
       <c r="N20">
-        <v>1.01660970372845</v>
+        <v>1.0113030667147</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.030800484685559</v>
+        <v>0.9898829912157151</v>
       </c>
       <c r="D21">
-        <v>1.033939278197641</v>
+        <v>1.010124064657373</v>
       </c>
       <c r="E21">
-        <v>1.043939224425014</v>
+        <v>1.006099278046833</v>
       </c>
       <c r="F21">
-        <v>1.050164452849232</v>
+        <v>1.005548119085529</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035470209569975</v>
+        <v>1.039168237932007</v>
       </c>
       <c r="J21">
-        <v>1.037423938867306</v>
+        <v>1.019809876009431</v>
       </c>
       <c r="K21">
-        <v>1.037527102430183</v>
+        <v>1.024916138915186</v>
       </c>
       <c r="L21">
-        <v>1.047490064339289</v>
+        <v>1.020966011805077</v>
       </c>
       <c r="M21">
-        <v>1.053692661994227</v>
+        <v>1.020425137524501</v>
       </c>
       <c r="N21">
-        <v>1.016425957404412</v>
+        <v>1.010385072396254</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.030206199696972</v>
+        <v>0.9867282727665544</v>
       </c>
       <c r="D22">
-        <v>1.033511740971945</v>
+        <v>1.007953732165922</v>
       </c>
       <c r="E22">
-        <v>1.043333512458791</v>
+        <v>1.003141680110177</v>
       </c>
       <c r="F22">
-        <v>1.049459990539675</v>
+        <v>1.002152337769899</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035345053517825</v>
+        <v>1.038311324310209</v>
       </c>
       <c r="J22">
-        <v>1.037079539890281</v>
+        <v>1.018062233173637</v>
       </c>
       <c r="K22">
-        <v>1.037230502093833</v>
+        <v>1.023369253769289</v>
       </c>
       <c r="L22">
-        <v>1.047014509843629</v>
+        <v>1.018651155566909</v>
       </c>
       <c r="M22">
-        <v>1.053117828827147</v>
+        <v>1.017681276673219</v>
       </c>
       <c r="N22">
-        <v>1.016310368298381</v>
+        <v>1.009794847937716</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.030521178136329</v>
+        <v>0.9884071087748164</v>
       </c>
       <c r="D23">
-        <v>1.033738337271501</v>
+        <v>1.009108210420454</v>
       </c>
       <c r="E23">
-        <v>1.043654505770839</v>
+        <v>1.004714968454589</v>
       </c>
       <c r="F23">
-        <v>1.04983330028401</v>
+        <v>1.003958743151112</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035411492935886</v>
+        <v>1.038768090158527</v>
       </c>
       <c r="J23">
-        <v>1.037262116742029</v>
+        <v>1.018992430978635</v>
       </c>
       <c r="K23">
-        <v>1.037387758145207</v>
+        <v>1.024192682939961</v>
       </c>
       <c r="L23">
-        <v>1.047266569981429</v>
+        <v>1.019882935379244</v>
       </c>
       <c r="M23">
-        <v>1.053422482198376</v>
+        <v>1.019141178771523</v>
       </c>
       <c r="N23">
-        <v>1.016371649862169</v>
+        <v>1.010109004892054</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.031762613703235</v>
+        <v>0.9948765693809472</v>
       </c>
       <c r="D24">
-        <v>1.03463150893656</v>
+        <v>1.013567587115007</v>
       </c>
       <c r="E24">
-        <v>1.044920568956026</v>
+        <v>1.010791627859356</v>
       </c>
       <c r="F24">
-        <v>1.051306060221519</v>
+        <v>1.010935375212497</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035671018804822</v>
+        <v>1.040511762095675</v>
       </c>
       <c r="J24">
-        <v>1.037980799872082</v>
+        <v>1.022573278054034</v>
       </c>
       <c r="K24">
-        <v>1.038006352898251</v>
+        <v>1.02736055760095</v>
       </c>
       <c r="L24">
-        <v>1.048259792976874</v>
+        <v>1.024631844244237</v>
       </c>
       <c r="M24">
-        <v>1.054623563556191</v>
+        <v>1.024773136836812</v>
       </c>
       <c r="N24">
-        <v>1.016612783202736</v>
+        <v>1.01131824266945</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.0332060650324</v>
+        <v>1.002113950789222</v>
       </c>
       <c r="D25">
-        <v>1.035670167177124</v>
+        <v>1.018575576382134</v>
       </c>
       <c r="E25">
-        <v>1.046394554715993</v>
+        <v>1.017616908458894</v>
       </c>
       <c r="F25">
-        <v>1.053021422886544</v>
+        <v>1.018771591098139</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035967935834997</v>
+        <v>1.042427340416435</v>
       </c>
       <c r="J25">
-        <v>1.038814532345951</v>
+        <v>1.026570380894107</v>
       </c>
       <c r="K25">
-        <v>1.038723104544298</v>
+        <v>1.030892215128967</v>
       </c>
       <c r="L25">
-        <v>1.049414156379645</v>
+        <v>1.029947764351091</v>
       </c>
       <c r="M25">
-        <v>1.056020795824879</v>
+        <v>1.031085327113157</v>
       </c>
       <c r="N25">
-        <v>1.016892327199673</v>
+        <v>1.012667676725404</v>
       </c>
     </row>
   </sheetData>
